--- a/bonus_calculator.xlsx
+++ b/bonus_calculator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omer.faraz\Downloads\BonusCalculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E4F394-6536-41F4-80D9-F0F8AE0CA005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F918847-80F6-4A95-B2F1-E840AE12C40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51720" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="71160" yWindow="4680" windowWidth="19440" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Agents" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
-    <t>Agent</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>Baseline Bonus</t>
+  </si>
+  <si>
+    <t>CMM</t>
   </si>
 </sst>
 </file>
@@ -476,9 +476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -491,27 +489,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2">
         <v>120000</v>
@@ -525,10 +523,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3">
         <v>118000</v>
@@ -542,10 +540,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
       <c r="C4">
         <v>115000</v>
@@ -559,10 +557,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5">
         <v>123471</v>
@@ -576,10 +574,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>121000</v>
@@ -593,10 +591,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>119500</v>
@@ -610,10 +608,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>117000</v>
@@ -627,10 +625,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>122000</v>
@@ -651,7 +649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -661,18 +659,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -683,7 +681,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -694,7 +692,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -705,7 +703,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -716,7 +714,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -727,7 +725,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -738,7 +736,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -749,7 +747,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -781,27 +779,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>7408</v>
@@ -809,13 +807,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>7408</v>
@@ -823,13 +821,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>17286</v>
@@ -837,13 +835,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>17286</v>
